--- a/Cuadros/cuadros2.xlsx
+++ b/Cuadros/cuadros2.xlsx
@@ -7,12 +7,18 @@
   </bookViews>
   <sheets>
     <sheet name="q11_region" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="q26_region" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="q27_region" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="q37_region" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="q39_region" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="q40_region" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="q46_region" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="65">
   <si>
     <t xml:space="preserve">q11_covid_incidence</t>
   </si>
@@ -54,6 +60,159 @@
   </si>
   <si>
     <t xml:space="preserve">5 Decrease substantially</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Multilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bilateral</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Philanthropic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Feminist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Private</t>
+  </si>
+  <si>
+    <t xml:space="preserve">INGOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Individual</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goverment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Other</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not_sure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Movement building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Narrative work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Legal action and reform</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Research &amp; knowledge building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Responding to civic space crackdown/ urgent response work</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Advocacy &amp; campaigns</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Protests &amp; public mobilization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-movement mobilizing and alliance building</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holistic safety and protection of activists at risk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q37_operate_savings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">12-24 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-6 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Over 24 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Up to 3 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Africa.x</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4. Africa.y</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Permanent and/or longer term contracts (12 months +)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Competitive salary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paid leave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Life insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pension or gratuity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Health insurance</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Flexible work arrangements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Administrative support </t>
+  </si>
+  <si>
+    <t xml:space="preserve">q40_staff_employed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1 person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2-3 staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3-5 staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">All our staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">None, this work is voluntary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">q46_language</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arabic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">English</t>
+  </si>
+  <si>
+    <t xml:space="preserve">French</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portuguese</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Russian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spanish</t>
   </si>
 </sst>
 </file>
@@ -563,4 +722,1630 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>93</v>
+      </c>
+      <c r="C2" t="n">
+        <v>18</v>
+      </c>
+      <c r="D2" t="n">
+        <v>17</v>
+      </c>
+      <c r="E2" t="n">
+        <v>81</v>
+      </c>
+      <c r="F2" t="n">
+        <v>47</v>
+      </c>
+      <c r="G2" t="n">
+        <v>8</v>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="n">
+        <v>7</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>9</v>
+      </c>
+      <c r="F3" t="n">
+        <v>2</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" t="n">
+        <v>7</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" t="n">
+        <v>8</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="n">
+        <v>23</v>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>9</v>
+      </c>
+      <c r="F5" t="n">
+        <v>5</v>
+      </c>
+      <c r="G5" t="n">
+        <v>2</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="n">
+        <v>30</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3</v>
+      </c>
+      <c r="E6" t="n">
+        <v>31</v>
+      </c>
+      <c r="F6" t="n">
+        <v>16</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>17</v>
+      </c>
+      <c r="F8" t="n">
+        <v>9</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E9" t="n">
+        <v>6</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>2</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="n">
+        <v>4</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1</v>
+      </c>
+      <c r="E10" t="n">
+        <v>4</v>
+      </c>
+      <c r="F10" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1</v>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" t="n">
+        <v>33</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>9</v>
+      </c>
+      <c r="E12" t="n">
+        <v>25</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" t="n">
+        <v>2</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1</v>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>86</v>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E2" t="n">
+        <v>75</v>
+      </c>
+      <c r="F2" t="n">
+        <v>43</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" t="n">
+        <v>41</v>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>10</v>
+      </c>
+      <c r="E3" t="n">
+        <v>43</v>
+      </c>
+      <c r="F3" t="n">
+        <v>31</v>
+      </c>
+      <c r="G3" t="n">
+        <v>5</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="n">
+        <v>37</v>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>6</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>9</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2</v>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" t="n">
+        <v>17</v>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3</v>
+      </c>
+      <c r="E5" t="n">
+        <v>18</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1</v>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="n">
+        <v>31</v>
+      </c>
+      <c r="C6" t="n">
+        <v>8</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7</v>
+      </c>
+      <c r="E6" t="n">
+        <v>24</v>
+      </c>
+      <c r="F6" t="n">
+        <v>17</v>
+      </c>
+      <c r="G6" t="n">
+        <v>4</v>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="n">
+        <v>14</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>4</v>
+      </c>
+      <c r="E7" t="n">
+        <v>16</v>
+      </c>
+      <c r="F7" t="n">
+        <v>8</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+      <c r="B8" t="n">
+        <v>56</v>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>9</v>
+      </c>
+      <c r="E8" t="n">
+        <v>62</v>
+      </c>
+      <c r="F8" t="n">
+        <v>34</v>
+      </c>
+      <c r="G8" t="n">
+        <v>6</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="n">
+        <v>22</v>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11</v>
+      </c>
+      <c r="F9" t="n">
+        <v>8</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" t="n">
+        <v>34</v>
+      </c>
+      <c r="C10" t="n">
+        <v>7</v>
+      </c>
+      <c r="D10" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" t="n">
+        <v>25</v>
+      </c>
+      <c r="F10" t="n">
+        <v>14</v>
+      </c>
+      <c r="G10" t="n">
+        <v>3</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="n">
+        <v>20</v>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+      <c r="D11" t="n">
+        <v>5</v>
+      </c>
+      <c r="E11" t="n">
+        <v>15</v>
+      </c>
+      <c r="F11" t="n">
+        <v>11</v>
+      </c>
+      <c r="G11" t="n">
+        <v>2</v>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>7</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>2</v>
+      </c>
+      <c r="F12" t="n">
+        <v>5</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1</v>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B2" t="n">
+        <v>56</v>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" t="n">
+        <v>5</v>
+      </c>
+      <c r="F2" t="n">
+        <v>26</v>
+      </c>
+      <c r="G2" t="n">
+        <v>16</v>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+      <c r="I2" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="n">
+        <v>229</v>
+      </c>
+      <c r="C3" t="n">
+        <v>87</v>
+      </c>
+      <c r="D3" t="n">
+        <v>20</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13</v>
+      </c>
+      <c r="F3" t="n">
+        <v>75</v>
+      </c>
+      <c r="G3" t="n">
+        <v>43</v>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+      <c r="I3" t="n">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" t="n">
+        <v>162</v>
+      </c>
+      <c r="C4" t="n">
+        <v>57</v>
+      </c>
+      <c r="D4" t="n">
+        <v>18</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10</v>
+      </c>
+      <c r="F4" t="n">
+        <v>73</v>
+      </c>
+      <c r="G4" t="n">
+        <v>28</v>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+      <c r="I4" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" t="n">
+        <v>43</v>
+      </c>
+      <c r="C5" t="n">
+        <v>17</v>
+      </c>
+      <c r="D5" t="n">
+        <v>6</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>27</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" t="n">
+        <v>233</v>
+      </c>
+      <c r="C6" t="n">
+        <v>62</v>
+      </c>
+      <c r="D6" t="n">
+        <v>23</v>
+      </c>
+      <c r="E6" t="n">
+        <v>21</v>
+      </c>
+      <c r="F6" t="n">
+        <v>71</v>
+      </c>
+      <c r="G6" t="n">
+        <v>65</v>
+      </c>
+      <c r="H6" t="n">
+        <v>11</v>
+      </c>
+      <c r="I6" t="n">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F1" t="s">
+        <v>42</v>
+      </c>
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="n">
+        <v>385</v>
+      </c>
+      <c r="C2" t="n">
+        <v>109</v>
+      </c>
+      <c r="D2" t="n">
+        <v>79</v>
+      </c>
+      <c r="E2" t="n">
+        <v>438</v>
+      </c>
+      <c r="F2" t="n">
+        <v>248</v>
+      </c>
+      <c r="G2" t="n">
+        <v>42</v>
+      </c>
+      <c r="H2" t="n">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B3" t="n">
+        <v>204</v>
+      </c>
+      <c r="C3" t="n">
+        <v>47</v>
+      </c>
+      <c r="D3" t="n">
+        <v>25</v>
+      </c>
+      <c r="E3" t="n">
+        <v>190</v>
+      </c>
+      <c r="F3" t="n">
+        <v>79</v>
+      </c>
+      <c r="G3" t="n">
+        <v>16</v>
+      </c>
+      <c r="H3" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B4" t="n">
+        <v>93</v>
+      </c>
+      <c r="C4" t="n">
+        <v>36</v>
+      </c>
+      <c r="D4" t="n">
+        <v>30</v>
+      </c>
+      <c r="E4" t="n">
+        <v>141</v>
+      </c>
+      <c r="F4" t="n">
+        <v>100</v>
+      </c>
+      <c r="G4" t="n">
+        <v>17</v>
+      </c>
+      <c r="H4" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" t="n">
+        <v>50</v>
+      </c>
+      <c r="C5" t="n">
+        <v>27</v>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>60</v>
+      </c>
+      <c r="F5" t="n">
+        <v>60</v>
+      </c>
+      <c r="G5" t="n">
+        <v>13</v>
+      </c>
+      <c r="H5" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="n">
+        <v>74</v>
+      </c>
+      <c r="C6" t="n">
+        <v>40</v>
+      </c>
+      <c r="D6" t="n">
+        <v>30</v>
+      </c>
+      <c r="E6" t="n">
+        <v>94</v>
+      </c>
+      <c r="F6" t="n">
+        <v>86</v>
+      </c>
+      <c r="G6" t="n">
+        <v>19</v>
+      </c>
+      <c r="H6" t="n">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" t="n">
+        <v>19</v>
+      </c>
+      <c r="C7" t="n">
+        <v>15</v>
+      </c>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="n">
+        <v>36</v>
+      </c>
+      <c r="F7" t="n">
+        <v>27</v>
+      </c>
+      <c r="G7" t="n">
+        <v>6</v>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>48</v>
+      </c>
+      <c r="B8" t="n">
+        <v>36</v>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>13</v>
+      </c>
+      <c r="E8" t="n">
+        <v>48</v>
+      </c>
+      <c r="F8" t="n">
+        <v>39</v>
+      </c>
+      <c r="G8" t="n">
+        <v>8</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B9" t="n">
+        <v>60</v>
+      </c>
+      <c r="C9" t="n">
+        <v>32</v>
+      </c>
+      <c r="D9" t="n">
+        <v>25</v>
+      </c>
+      <c r="E9" t="n">
+        <v>89</v>
+      </c>
+      <c r="F9" t="n">
+        <v>68</v>
+      </c>
+      <c r="G9" t="n">
+        <v>14</v>
+      </c>
+      <c r="H9" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>50</v>
+      </c>
+      <c r="B10" t="n">
+        <v>142</v>
+      </c>
+      <c r="C10" t="n">
+        <v>53</v>
+      </c>
+      <c r="D10" t="n">
+        <v>46</v>
+      </c>
+      <c r="E10" t="n">
+        <v>145</v>
+      </c>
+      <c r="F10" t="n">
+        <v>112</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" t="n">
+        <v>66</v>
+      </c>
+      <c r="C11" t="n">
+        <v>30</v>
+      </c>
+      <c r="D11" t="n">
+        <v>20</v>
+      </c>
+      <c r="E11" t="n">
+        <v>99</v>
+      </c>
+      <c r="F11" t="n">
+        <v>64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>15</v>
+      </c>
+      <c r="H11" t="n">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="n">
+        <v>15</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6</v>
+      </c>
+      <c r="D12" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" t="n">
+        <v>16</v>
+      </c>
+      <c r="F12" t="n">
+        <v>13</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2</v>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="n">
+        <v>175</v>
+      </c>
+      <c r="C2" t="n">
+        <v>56</v>
+      </c>
+      <c r="D2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
+        <v>61</v>
+      </c>
+      <c r="G2" t="n">
+        <v>43</v>
+      </c>
+      <c r="H2" t="n">
+        <v>13</v>
+      </c>
+      <c r="I2" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="n">
+        <v>213</v>
+      </c>
+      <c r="C3" t="n">
+        <v>64</v>
+      </c>
+      <c r="D3" t="n">
+        <v>16</v>
+      </c>
+      <c r="E3" t="n">
+        <v>10</v>
+      </c>
+      <c r="F3" t="n">
+        <v>85</v>
+      </c>
+      <c r="G3" t="n">
+        <v>56</v>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+      <c r="I3" t="n">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" t="n">
+        <v>131</v>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>10</v>
+      </c>
+      <c r="E4" t="n">
+        <v>7</v>
+      </c>
+      <c r="F4" t="n">
+        <v>64</v>
+      </c>
+      <c r="G4" t="n">
+        <v>32</v>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+      <c r="I4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" t="n">
+        <v>84</v>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6</v>
+      </c>
+      <c r="F5" t="n">
+        <v>36</v>
+      </c>
+      <c r="G5" t="n">
+        <v>28</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>57</v>
+      </c>
+      <c r="B6" t="n">
+        <v>515</v>
+      </c>
+      <c r="C6" t="n">
+        <v>200</v>
+      </c>
+      <c r="D6" t="n">
+        <v>45</v>
+      </c>
+      <c r="E6" t="n">
+        <v>35</v>
+      </c>
+      <c r="F6" t="n">
+        <v>180</v>
+      </c>
+      <c r="G6" t="n">
+        <v>79</v>
+      </c>
+      <c r="H6" t="n">
+        <v>15</v>
+      </c>
+      <c r="I6" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>23</v>
+      </c>
+      <c r="B7" t="n">
+        <v>56</v>
+      </c>
+      <c r="C7" t="n">
+        <v>22</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>11</v>
+      </c>
+      <c r="F7" t="n">
+        <v>16</v>
+      </c>
+      <c r="G7" t="n">
+        <v>17</v>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+      <c r="I7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="false"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" t="n">
+        <v>34</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>6</v>
+      </c>
+      <c r="G2" t="n">
+        <v>4</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="n">
+        <v>566</v>
+      </c>
+      <c r="C3" t="n">
+        <v>77</v>
+      </c>
+      <c r="D3" t="n">
+        <v>62</v>
+      </c>
+      <c r="E3" t="n">
+        <v>58</v>
+      </c>
+      <c r="F3" t="n">
+        <v>261</v>
+      </c>
+      <c r="G3" t="n">
+        <v>202</v>
+      </c>
+      <c r="H3" t="n">
+        <v>36</v>
+      </c>
+      <c r="I3" t="n">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>61</v>
+      </c>
+      <c r="B4" t="n">
+        <v>150</v>
+      </c>
+      <c r="C4" t="n">
+        <v>14</v>
+      </c>
+      <c r="D4" t="n">
+        <v>11</v>
+      </c>
+      <c r="E4" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" t="n">
+        <v>118</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5" t="n">
+        <v>46</v>
+      </c>
+      <c r="C5" t="n">
+        <v>39</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>63</v>
+      </c>
+      <c r="B6" t="n">
+        <v>6</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>5</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" t="n">
+        <v>207</v>
+      </c>
+      <c r="C7" t="n">
+        <v>200</v>
+      </c>
+      <c r="D7" t="n">
+        <v>12</v>
+      </c>
+      <c r="E7" t="n">
+        <v>3</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>3</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>
+</worksheet>
 </file>